--- a/Hoadon/HDVao/7/HDDienTuKhongMa.xlsx
+++ b/Hoadon/HDVao/7/HDDienTuKhongMa.xlsx
@@ -193,15 +193,17 @@
     <col min="6" max="6" width="31.25" customWidth="true"/>
     <col min="7" max="7" width="31.25" customWidth="true"/>
     <col min="8" max="8" width="31.25" customWidth="true"/>
-    <col min="9" max="9" width="11.71875" customWidth="true"/>
-    <col min="10" max="10" width="11.71875" customWidth="true"/>
-    <col min="11" max="11" width="19.53125" customWidth="true"/>
-    <col min="12" max="12" width="19.53125" customWidth="true"/>
+    <col min="9" max="9" width="31.25" customWidth="true"/>
+    <col min="10" max="10" width="31.25" customWidth="true"/>
+    <col min="11" max="11" width="11.71875" customWidth="true"/>
+    <col min="12" max="12" width="11.71875" customWidth="true"/>
     <col min="13" max="13" width="19.53125" customWidth="true"/>
-    <col min="14" max="14" width="11.71875" customWidth="true"/>
-    <col min="15" max="15" width="11.71875" customWidth="true"/>
-    <col min="16" max="16" width="19.53125" customWidth="true"/>
-    <col min="17" max="17" width="50.78125" customWidth="true"/>
+    <col min="14" max="14" width="19.53125" customWidth="true"/>
+    <col min="15" max="15" width="19.53125" customWidth="true"/>
+    <col min="16" max="16" width="11.71875" customWidth="true"/>
+    <col min="17" max="17" width="11.71875" customWidth="true"/>
+    <col min="18" max="18" width="19.53125" customWidth="true"/>
+    <col min="19" max="19" width="50.78125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -214,7 +216,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Từ ngày 01/07/2025 đến ngày 10/07/2025</t>
+          <t>Từ ngày 15/07/2025 đến ngày 15/07/2025</t>
         </is>
       </c>
     </row>
@@ -261,188 +263,64 @@
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
+          <t>MST người mua/MST người nhận hàng</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>Tên người mua/Tên người nhận hàng</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
           <t>Tổng tiền chưa thuế</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền thuế</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền chiết khấu thương mại</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền phí</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền thanh toán</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>Đơn vị tiền tệ</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>Tỷ giá</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>Trạng thái hóa đơn</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>Kết quả kiểm tra hóa đơn</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>K25THA</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>864000</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>02/07/2025</t>
-        </is>
-      </c>
-      <c r="F7" s="7" t="inlineStr">
-        <is>
-          <t>0106869738-044</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM KINH DOANH VNPT BÀ RỊA - VŨNG TÀU - CHI NHÁNH TỔNG CÔNG TY DỊCH VỤ VIỄN THÔNG</t>
-        </is>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="13" t="n">
-        <v>1811397.0</v>
-      </c>
-      <c r="J7" s="13" t="n">
-        <v>181140.0</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13" t="n">
-        <v>1992537.0</v>
-      </c>
-      <c r="N7" s="7" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
-      <c r="O7" s="7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="P7" s="6" t="inlineStr">
-        <is>
-          <t>Hóa đơn mới</t>
-        </is>
-      </c>
-      <c r="Q7" s="6" t="inlineStr">
-        <is>
-          <t>Tổng cục thuế đã nhận không mã</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>K25TTA</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>785829</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>01/07/2025</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>0300942001-026</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>CÔNG TY ĐIỆN LỰC BÀ RỊA - VŨNG TÀU</t>
-        </is>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="13" t="n">
-        <v>8938608.0</v>
-      </c>
-      <c r="J8" s="13" t="n">
-        <v>715089.0</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13" t="n">
-        <v>9653697.0</v>
-      </c>
-      <c r="N8" s="7" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
-      <c r="O8" s="7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="P8" s="6" t="inlineStr">
-        <is>
-          <t>Hóa đơn mới</t>
-        </is>
-      </c>
-      <c r="Q8" s="6" t="inlineStr">
-        <is>
-          <t>Tổng cục thuế đã nhận không mã</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Hoadon/HDVao/7/HDDienTuKhongMa.xlsx
+++ b/Hoadon/HDVao/7/HDDienTuKhongMa.xlsx
@@ -216,7 +216,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Từ ngày 15/07/2025 đến ngày 15/07/2025</t>
+          <t>Từ ngày 01/07/2025 đến ngày 24/07/2025</t>
         </is>
       </c>
     </row>
@@ -314,6 +314,391 @@
       <c r="S6" s="3" t="inlineStr">
         <is>
           <t>Kết quả kiểm tra hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>K25DAA</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>92109</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>06/07/2025</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>0100686209-129</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY DỊCH VỤ MOBIFONE KHU VỰC 8 - CHI NHÁNH TỔNG CÔNG TY VIỄN THÔNG MOBIFONE</t>
+        </is>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>3500898348</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>Công Ty TNHH Dịch Vụ Thuế Sao Việt</t>
+        </is>
+      </c>
+      <c r="K7" s="13" t="n">
+        <v>638829.0</v>
+      </c>
+      <c r="L7" s="13" t="n">
+        <v>63883.0</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13" t="n">
+        <v>702712.0</v>
+      </c>
+      <c r="P7" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q7" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R7" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S7" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>K25THA</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>836264</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>0106869738-044</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM KINH DOANH VNPT BÀ RỊA - VŨNG TÀU - CHI NHÁNH TỔNG CÔNG TY DỊCH VỤ VIỄN THÔNG</t>
+        </is>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t>3500898348</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>Công Ty TNHH Dịch Vụ Thuế Sao Việt</t>
+        </is>
+      </c>
+      <c r="K8" s="13" t="n">
+        <v>40242.0</v>
+      </c>
+      <c r="L8" s="13" t="n">
+        <v>4024.0</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13" t="n">
+        <v>44266.0</v>
+      </c>
+      <c r="P8" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q8" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R8" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S8" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>K25THA</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>868760</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>0106869738-044</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM KINH DOANH VNPT BÀ RỊA - VŨNG TÀU - CHI NHÁNH TỔNG CÔNG TY DỊCH VỤ VIỄN THÔNG</t>
+        </is>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t>3500898348</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>Công Ty TNHH Dịch Vụ Thuế Sao Việt</t>
+        </is>
+      </c>
+      <c r="K9" s="13" t="n">
+        <v>680000.0</v>
+      </c>
+      <c r="L9" s="13" t="n">
+        <v>68000.0</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13" t="n">
+        <v>748000.0</v>
+      </c>
+      <c r="P9" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q9" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R9" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S9" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>K25TTA</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>711195</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>0300942001-026</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY ĐIỆN LỰC BÀ RỊA - VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>3500898348</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>Công Ty TNHH Dịch Vụ Thuế Sao Việt</t>
+        </is>
+      </c>
+      <c r="K10" s="13" t="n">
+        <v>2058256.0</v>
+      </c>
+      <c r="L10" s="13" t="n">
+        <v>164660.0</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13" t="n">
+        <v>2222916.0</v>
+      </c>
+      <c r="P10" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q10" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R10" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S10" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>K25TTA</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>804206</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>0300942001-026</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY ĐIỆN LỰC BÀ RỊA - VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t>3500898348</t>
+        </is>
+      </c>
+      <c r="J11" s="6" t="inlineStr">
+        <is>
+          <t>Công ty TNHH DV Thuế Sao Việt</t>
+        </is>
+      </c>
+      <c r="K11" s="13" t="n">
+        <v>2631920.0</v>
+      </c>
+      <c r="L11" s="13" t="n">
+        <v>210554.0</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13" t="n">
+        <v>2842474.0</v>
+      </c>
+      <c r="P11" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q11" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R11" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S11" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
         </is>
       </c>
     </row>
